--- a/experiment/Potential/KAI/graph/result_graph.xlsx
+++ b/experiment/Potential/KAI/graph/result_graph.xlsx
@@ -4,54 +4,67 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chain_D2_D4" sheetId="1" r:id="rId1"/>
     <sheet name="chain_FULL" sheetId="2" r:id="rId2"/>
     <sheet name="chain_del" sheetId="3" r:id="rId3"/>
     <sheet name="tsumoList_D3_D3FULL_D4" sheetId="4" r:id="rId4"/>
-    <sheet name="chain_N3FULL_N4" sheetId="7" r:id="rId5"/>
-    <sheet name="totalPuyo_N3_N3del" sheetId="9" r:id="rId6"/>
-    <sheet name="chain_N3_N3del" sheetId="12" r:id="rId7"/>
+    <sheet name="chain_N3_N3del" sheetId="12" r:id="rId5"/>
+    <sheet name="chain_N3full_fulldel_N4" sheetId="7" r:id="rId6"/>
+    <sheet name="totalPuyo_N3_N3del_N3fulldel" sheetId="9" r:id="rId7"/>
+    <sheet name="tsumoList_D3ful_fulldel_D4" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="6">
   <si>
     <t>n=2</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>n=3</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>n=4</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>n=3, full width</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>n=3, delete</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>n=3, full width, delete</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,8 +116,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,26 +131,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準 4" xfId="3"/>
+    <cellStyle name="標準 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -167,109 +187,115 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>N3</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>chain_N3FULL_N4!$B$1:$B$32</c:f>
+              <c:f>chain_N3_N3del!$B$1:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.48</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.72</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.42</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.72</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.06</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.48</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.82</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.12</c:v>
+                  <c:v>3.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>3.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6399999999999997</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.26</c:v>
+                  <c:v>4.34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.52</c:v>
+                  <c:v>4.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.68</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.04</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.36</c:v>
+                  <c:v>5.22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.58</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9</c:v>
+                  <c:v>5.36</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.1</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.22</c:v>
+                  <c:v>5.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.4</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.56</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.7</c:v>
+                  <c:v>5.74</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.72</c:v>
+                  <c:v>5.38</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.84</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.74</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.88</c:v>
+                  <c:v>5.56</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.36</c:v>
+                  <c:v>5.54</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.6</c:v>
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,109 +303,115 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>N3Del</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>chain_N3FULL_N4!$C$1:$C$32</c:f>
+              <c:f>chain_N3_N3del!$C$1:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1.06</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.38</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.74</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.28</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.82</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.38</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>5.7</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.78</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.46</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.64</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.32</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.48</c:v>
+                  <c:v>6.06</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.68</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.84</c:v>
+                  <c:v>6.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.98</c:v>
+                  <c:v>6.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.1</c:v>
+                  <c:v>5.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.02</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.9</c:v>
+                  <c:v>5.56</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.5</c:v>
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,11 +428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134336512"/>
-        <c:axId val="185039040"/>
+        <c:axId val="188413952"/>
+        <c:axId val="165374208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134336512"/>
+        <c:axId val="188413952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,7 +441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185039040"/>
+        <c:crossAx val="165374208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,7 +449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185039040"/>
+        <c:axId val="165374208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134336512"/>
+        <c:crossAx val="188413952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -475,108 +507,108 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>totalPuyo_N3_N3del!$B$1:$B$33</c:f>
+              <c:f>chain_N3full_fulldel_N4!$B$1:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>4.6399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>5.26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>6.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>6.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>6.58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46</c:v>
+                  <c:v>7.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54</c:v>
+                  <c:v>7.72</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56</c:v>
+                  <c:v>7.84</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>7.74</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60</c:v>
+                  <c:v>7.88</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62</c:v>
+                  <c:v>7.36</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66</c:v>
+                  <c:v>6.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,108 +620,221 @@
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>totalPuyo_N3_N3del!$C$1:$C$33</c:f>
+              <c:f>chain_N3full_fulldel_N4!$C$1:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.92</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.92</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>chain_N3full_fulldel_N4!$D$1:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>9.68</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27.26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.02</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34.72</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>36.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37.86</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39.42</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42.04</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43.62</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.26</c:v>
+                  <c:v>9.84</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.14</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45.5</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.88</c:v>
+                  <c:v>10.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.64</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.72</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.46</c:v>
+                  <c:v>8.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,11 +851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167602176"/>
-        <c:axId val="160174016"/>
+        <c:axId val="17697280"/>
+        <c:axId val="143111808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167602176"/>
+        <c:axId val="17697280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160174016"/>
+        <c:crossAx val="143111808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -727,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160174016"/>
+        <c:axId val="143111808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167602176"/>
+        <c:crossAx val="17697280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -783,113 +928,110 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>N3</c:v>
-          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>chain_N3_N3del!$B$1:$B$33</c:f>
+              <c:f>totalPuyo_N3_N3del_N3fulldel!$B$1:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.94</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2799999999999998</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.46</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.68</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.58</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.94</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.18</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.96</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.22</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.54</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.78</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.74</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.38</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.54</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.96</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,113 +1041,223 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>N3Del</c:v>
-          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>chain_N3_N3del!$C$1:$C$33</c:f>
+              <c:f>totalPuyo_N3_N3del_N3fulldel!$C$1:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3</c:v>
+                  <c:v>7.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.48</c:v>
+                  <c:v>9.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8</c:v>
+                  <c:v>11.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.92</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1800000000000002</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>16.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.68</c:v>
+                  <c:v>17.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.04</c:v>
+                  <c:v>19.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1</c:v>
+                  <c:v>21.28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.34</c:v>
+                  <c:v>22.62</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.78</c:v>
+                  <c:v>25.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>27.26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.32</c:v>
+                  <c:v>29.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.76</c:v>
+                  <c:v>31.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.46</c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.68</c:v>
+                  <c:v>34.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.24</c:v>
+                  <c:v>36.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.44</c:v>
+                  <c:v>37.86</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.76</c:v>
+                  <c:v>39.42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7</c:v>
+                  <c:v>41.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.06</c:v>
+                  <c:v>42.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.08</c:v>
+                  <c:v>43.62</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.02</c:v>
+                  <c:v>45.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.12</c:v>
+                  <c:v>45.14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.82</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.78</c:v>
+                  <c:v>45.88</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.56</c:v>
+                  <c:v>46.64</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.74</c:v>
+                  <c:v>47.72</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.86</c:v>
+                  <c:v>47.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>totalPuyo_N3_N3del_N3fulldel!$D$1:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,11 +1274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="12305920"/>
-        <c:axId val="233092160"/>
+        <c:axId val="17696256"/>
+        <c:axId val="164200448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12305920"/>
+        <c:axId val="17696256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233092160"/>
+        <c:crossAx val="164200448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233092160"/>
+        <c:axId val="164200448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1306,439 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12305920"/>
+        <c:crossAx val="17696256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n3full</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tsumoList_D3ful_fulldel_D4!$B$1:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6734693877551021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1914893617021276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n3fulldel</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tsumoList_D3ful_fulldel_D4!$C$1:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>18.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n4</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tsumoList_D3ful_fulldel_D4!$D$1:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>18.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15942656"/>
+        <c:axId val="164207360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15942656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164207360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164207360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15942656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,16 +1764,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1115,20 +1799,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1150,16 +1834,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2675,7 +3394,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2685,7 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3890,16 +4609,18 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4703,8 +5424,808 @@
         <v>7</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5180,7 +6701,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5197,364 +6718,367 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1.06</v>
+      <c r="B1" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0.16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.7</v>
+      <c r="B2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.48</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.04</v>
+      <c r="B3" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2.38</v>
+      <c r="B4" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.74</v>
+      <c r="B5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>2.42</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.28</v>
+      <c r="B6" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>2.72</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.82</v>
+      <c r="B7" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>3.06</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.38</v>
+      <c r="B8" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4.8</v>
+      <c r="B9" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>3.82</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5.2</v>
+      <c r="B10" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>4.12</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5.7</v>
+      <c r="B11" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.04</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6</v>
+      <c r="B12" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.36</v>
+      <c r="B13" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.78</v>
+      <c r="B14" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
-        <v>5.26</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7.14</v>
+      <c r="B15" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
-        <v>5.52</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7.46</v>
+      <c r="B16" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
-        <v>5.68</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7.76</v>
+      <c r="B17" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
-        <v>6.04</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8.0399999999999991</v>
+      <c r="B18" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
-        <v>6.36</v>
-      </c>
-      <c r="C19" s="3">
-        <v>8.3800000000000008</v>
+      <c r="B19" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
-        <v>6.58</v>
-      </c>
-      <c r="C20" s="3">
-        <v>8.64</v>
+      <c r="B20" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8.9</v>
+      <c r="B21" s="4">
+        <v>5.36</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>9.1</v>
+      <c r="B22" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5.44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
-        <v>7.22</v>
-      </c>
-      <c r="C23" s="3">
-        <v>9.24</v>
+      <c r="B23" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5.76</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>9.32</v>
+      <c r="B24" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
-        <v>7.56</v>
-      </c>
-      <c r="C25" s="3">
-        <v>9.48</v>
+      <c r="B25" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.06</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>9.68</v>
+      <c r="B26" s="4">
+        <v>5.74</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6.08</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="3">
-        <v>7.72</v>
-      </c>
-      <c r="C27" s="3">
-        <v>9.84</v>
+      <c r="B27" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6.02</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
-        <v>7.84</v>
-      </c>
-      <c r="C28" s="3">
-        <v>9.98</v>
+      <c r="B28" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6.12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
-        <v>7.74</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10.1</v>
+      <c r="B29" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.82</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="3">
-        <v>7.88</v>
-      </c>
-      <c r="C30" s="3">
-        <v>10.02</v>
+      <c r="B30" s="4">
+        <v>5.56</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5.78</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="3">
-        <v>7.36</v>
-      </c>
-      <c r="C31" s="3">
-        <v>9.9</v>
+      <c r="B31" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5.56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="C32" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
-        <v>6.68</v>
-      </c>
-      <c r="C33" s="3">
-        <v>8.36</v>
+      <c r="B32" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.96</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5562,410 +7086,476 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1">
-        <f>A1*2</f>
-        <v>2</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="C1" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B33" si="0">A2*2</f>
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>11.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.04</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C9" s="4">
-        <v>16.440000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.44</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C10" s="4">
-        <v>17.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C11" s="4">
-        <v>19.579999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4.12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C12" s="4">
-        <v>21.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C13" s="4">
-        <v>22.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C14" s="4">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C15" s="4">
-        <v>25.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5.24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C16" s="4">
-        <v>27.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5.58</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C17" s="4">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5.76</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C18" s="4">
-        <v>31.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>6.04</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.08</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C19" s="4">
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>6.36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6.36</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C20" s="4">
-        <v>34.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C21" s="4">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.96</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C22" s="4">
-        <v>37.86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7.12</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C23" s="4">
-        <v>39.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7.26</v>
+      </c>
+      <c r="D23" s="3">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C24" s="4">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C25" s="4">
-        <v>42.04</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>7.56</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7.72</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C26" s="4">
-        <v>43.62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7.96</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C27" s="4">
-        <v>45.26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>7.72</v>
+      </c>
+      <c r="C27" s="5">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C28" s="4">
-        <v>45.14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="C28" s="5">
+        <v>8.16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C29" s="4">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>7.74</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C30" s="4">
-        <v>45.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>7.88</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C31" s="4">
-        <v>46.64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>7.36</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8.32</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C32" s="4">
-        <v>47.72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>8.14</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C33" s="4">
-        <v>47.46</v>
+      <c r="B33" s="3">
+        <v>6.68</v>
+      </c>
+      <c r="C33" s="5">
+        <v>7.78</v>
+      </c>
+      <c r="D33" s="3">
+        <v>8.36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5973,377 +7563,986 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
-        <v>0.16</v>
+      <c r="B1">
+        <f>A1*2</f>
+        <v>2</v>
       </c>
       <c r="C1" s="4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.6</v>
+      <c r="B2">
+        <f t="shared" ref="B2:B33" si="0">A2*2</f>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.02</v>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5.92</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.28</v>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.92</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.5</v>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9.68</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>1.8</v>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11.68</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.94</v>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>13.1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>2.2799999999999998</v>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14.7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>2.46</v>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>2.68</v>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>17.96</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>3.18</v>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="D11" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>3.36</v>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21.28</v>
+      </c>
+      <c r="D12" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>3.58</v>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22.62</v>
+      </c>
+      <c r="D13" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>3.94</v>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="C14" s="4">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>24.2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>4.34</v>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="C15" s="4">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>25.94</v>
+      </c>
+      <c r="D15" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <v>4.18</v>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="C16" s="4">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27.26</v>
+      </c>
+      <c r="D16" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <v>4.8</v>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="C17" s="4">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29.1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
-        <v>4.96</v>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="C18" s="4">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31.02</v>
+      </c>
+      <c r="D18" s="5">
+        <v>35.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
-        <v>5.22</v>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D19" s="5">
+        <v>37.840000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
-        <v>5.3</v>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C20" s="4">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>34.72</v>
+      </c>
+      <c r="D20" s="5">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
-        <v>5.36</v>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="C21" s="4">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D21" s="5">
+        <v>41.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
-        <v>5.2</v>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="C22" s="4">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>37.86</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <v>5.54</v>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="C23" s="4">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>39.42</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
-        <v>5.3</v>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="C24" s="4">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41.1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
-        <v>5.78</v>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="C25" s="4">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42.04</v>
+      </c>
+      <c r="D25" s="5">
+        <v>49.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
-        <v>5.74</v>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="C26" s="4">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>43.62</v>
+      </c>
+      <c r="D26" s="5">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
-        <v>5.38</v>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="C27" s="4">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45.26</v>
+      </c>
+      <c r="D27" s="5">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
-        <v>5.4</v>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="C28" s="4">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45.14</v>
+      </c>
+      <c r="D28" s="5">
+        <v>54.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="4">
-        <v>5.0999999999999996</v>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="C29" s="4">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45.5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>56.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
-        <v>5.56</v>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="C30" s="4">
-        <v>5.78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45.88</v>
+      </c>
+      <c r="D30" s="5">
+        <v>58.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
-        <v>5.54</v>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="C31" s="4">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>46.64</v>
+      </c>
+      <c r="D31" s="5">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
-        <v>5.14</v>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="C32" s="4">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>47.72</v>
+      </c>
+      <c r="D32" s="5">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
-        <v>5.96</v>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="C33" s="4">
-        <v>5.86</v>
+        <v>47.46</v>
+      </c>
+      <c r="D33" s="5">
+        <v>60.7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>18.48</v>
+      </c>
+      <c r="C1" s="5">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="D1" s="2">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16.14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>16.02</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10.24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.54</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.54</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.06</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.74</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.6734693877551021</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.1914893617021276</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/experiment/Potential/KAI/graph/result_graph.xlsx
+++ b/experiment/Potential/KAI/graph/result_graph.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26230"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wagahai/Documents/h28_soturon/experiment/Potential/KAI/graph/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20660" windowHeight="13520" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="chain_D2_D4" sheetId="1" r:id="rId1"/>
@@ -15,8 +20,14 @@
     <sheet name="chain_N3full_fulldel_N4" sheetId="7" r:id="rId6"/>
     <sheet name="totalPuyo_N3_N3del_N3fulldel" sheetId="9" r:id="rId7"/>
     <sheet name="tsumoList_D3ful_fulldel_D4" sheetId="15" r:id="rId8"/>
+    <sheet name="tsumoList_D3_fulldel_D4" sheetId="16" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -220,7 +231,7 @@
                   <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2799999999999998</c:v>
+                  <c:v>2.28</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.46</c:v>
@@ -283,7 +294,7 @@
                   <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5.56</c:v>
@@ -336,10 +347,10 @@
                   <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1800000000000002</c:v>
+                  <c:v>2.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>2.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.68</c:v>
@@ -360,7 +371,7 @@
                   <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.06</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4.32</c:v>
@@ -428,11 +439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188413952"/>
-        <c:axId val="165374208"/>
+        <c:axId val="-2104246544"/>
+        <c:axId val="-2097812320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188413952"/>
+        <c:axId val="-2104246544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165374208"/>
+        <c:crossAx val="-2097812320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -449,7 +460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165374208"/>
+        <c:axId val="-2097812320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,14 +471,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188413952"/>
+        <c:crossAx val="-2104246544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -545,13 +555,13 @@
                   <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6399999999999997</c:v>
+                  <c:v>4.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>5.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.26</c:v>
@@ -640,7 +650,7 @@
                   <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.54</c:v>
@@ -658,13 +668,13 @@
                   <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6399999999999997</c:v>
+                  <c:v>4.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>5.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.24</c:v>
@@ -703,22 +713,22 @@
                   <c:v>7.96</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.2799999999999994</c:v>
+                  <c:v>8.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.3800000000000008</c:v>
+                  <c:v>8.38</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8.32</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.14</c:v>
+                  <c:v>8.140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7.78</c:v>
@@ -771,7 +781,7 @@
                   <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6.36</c:v>
@@ -789,10 +799,10 @@
                   <c:v>7.76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>8.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3800000000000008</c:v>
+                  <c:v>8.38</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8.64</c:v>
@@ -851,11 +861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="17697280"/>
-        <c:axId val="143111808"/>
+        <c:axId val="-2103111232"/>
+        <c:axId val="-2102573952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17697280"/>
+        <c:axId val="-2103111232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143111808"/>
+        <c:crossAx val="-2102573952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -872,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143111808"/>
+        <c:axId val="-2102573952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,14 +893,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17697280"/>
+        <c:crossAx val="-2103111232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -935,103 +944,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,10 +1057,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.92</c:v>
@@ -1072,13 +1081,13 @@
                   <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.440000000000001</c:v>
+                  <c:v>16.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.579999999999998</c:v>
+                  <c:v>19.58</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>21.28</c:v>
@@ -1102,13 +1111,13 @@
                   <c:v>31.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.799999999999997</c:v>
+                  <c:v>32.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>34.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.200000000000003</c:v>
+                  <c:v>36.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>37.86</c:v>
@@ -1161,61 +1170,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>35.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.840000000000003</c:v>
+                  <c:v>37.84</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>39.76</c:v>
@@ -1274,11 +1283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="17696256"/>
-        <c:axId val="164200448"/>
+        <c:axId val="-2100901136"/>
+        <c:axId val="-2100404864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17696256"/>
+        <c:axId val="-2100901136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164200448"/>
+        <c:crossAx val="-2100404864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1295,7 +1304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164200448"/>
+        <c:axId val="-2100404864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17696256"/>
+        <c:crossAx val="-2100901136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1367,7 +1376,7 @@
                   <c:v>16.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.14</c:v>
+                  <c:v>9.140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.7</c:v>
@@ -1442,7 +1451,7 @@
                   <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>2.26</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.84</c:v>
@@ -1454,10 +1463,10 @@
                   <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6734693877551021</c:v>
+                  <c:v>1.673469387755102</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1914893617021276</c:v>
+                  <c:v>1.191489361702128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,7 +1486,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>18.920000000000002</c:v>
+                  <c:v>18.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.02</c:v>
@@ -1489,7 +1498,7 @@
                   <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9800000000000004</c:v>
+                  <c:v>4.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.98</c:v>
@@ -1510,7 +1519,7 @@
                   <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1800000000000002</c:v>
+                  <c:v>2.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.06</c:v>
@@ -1522,10 +1531,10 @@
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>2.24</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.88</c:v>
@@ -1537,7 +1546,7 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1800000000000002</c:v>
+                  <c:v>2.18</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.54</c:v>
@@ -1564,7 +1573,7 @@
                   <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>2.24</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.86</c:v>
@@ -1602,7 +1611,7 @@
                   <c:v>10.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3600000000000003</c:v>
+                  <c:v>4.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.06</c:v>
@@ -1620,7 +1629,7 @@
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.14</c:v>
@@ -1689,7 +1698,7 @@
                   <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>1.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,11 +1715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="15942656"/>
-        <c:axId val="164207360"/>
+        <c:axId val="-2100101088"/>
+        <c:axId val="-2086726992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15942656"/>
+        <c:axId val="-2100101088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,7 +1728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164207360"/>
+        <c:crossAx val="-2086726992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1727,7 +1736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164207360"/>
+        <c:axId val="-2086726992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1747,439 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15942656"/>
+        <c:crossAx val="-2100101088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n3</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tsumoList_D3_fulldel_D4!$B$1:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>18.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n3fulldel</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tsumoList_D3_fulldel_D4!$C$1:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>18.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n4</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tsumoList_D3_fulldel_D4!$D$1:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>18.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2127543968"/>
+        <c:axId val="-2103373312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2127543968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103373312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2103373312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127543968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,8 +2341,45 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1943,7 +2421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1978,7 +2456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2191,7 +2669,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -3406,7 +3884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -4618,11 +5096,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -6234,9 +6712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -6712,7 +7192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -7090,7 +7570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -7567,7 +8047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -8077,7 +8557,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -8533,6 +9013,483 @@
       </c>
       <c r="B33" s="2">
         <v>1.1914893617021276</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="C1" s="5">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="D1" s="2">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14.92</v>
+      </c>
+      <c r="C2" s="5">
+        <v>16.02</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10.24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.54</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.46</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.54</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.54</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.06</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.74</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.08</v>
       </c>
       <c r="C33" s="5">
         <v>1.28</v>
